--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -450,6 +450,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -673,6 +676,49 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default</t>
+  </si>
+  <si>
+    <t>@default</t>
+  </si>
+  <si>
+    <t>「この組織を複数のシステムで識別する」</t>
+  </si>
+  <si>
+    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
+  </si>
+  <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.id</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.extension</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.use</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.type</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.system</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.value</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.period</t>
+  </si>
+  <si>
+    <t>Organization.identifier:@default.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
   </si>
   <si>
     <t>Organization.identifier:medicalInstitutionCode</t>
@@ -692,9 +738,6 @@
 医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。 </t>
   </si>
   <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
     <t>Organization.identifier:medicalInstitutionCode.id</t>
   </si>
   <si>
@@ -722,20 +765,10 @@
     <t>Organization.identifier:medicalInstitutionCode.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization.identifier:insurerNumber</t>
   </si>
   <si>
     <t>insurerNumber</t>
-  </si>
-  <si>
-    <t>「この組織を複数のシステムで識別する」</t>
-  </si>
-  <si>
-    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -1462,7 +1495,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1500,7 +1533,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -2963,7 +2996,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>127</v>
@@ -2975,30 +3008,30 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3021,13 +3054,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3078,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3096,7 +3129,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3107,10 +3140,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3136,13 +3169,13 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3183,7 +3216,7 @@
         <v>96</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
@@ -3192,7 +3225,7 @@
         <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3210,7 +3243,7 @@
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3221,10 +3254,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3250,16 +3283,16 @@
         <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3284,13 +3317,13 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>38</v>
@@ -3308,7 +3341,7 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3320,13 +3353,13 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3337,10 +3370,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3363,19 +3396,19 @@
         <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3400,13 +3433,13 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>38</v>
@@ -3424,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3436,13 +3469,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3453,10 +3486,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3482,16 +3515,16 @@
         <v>62</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3540,7 +3573,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3552,16 +3585,16 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3569,10 +3602,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3595,16 +3628,16 @@
         <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3654,7 +3687,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3666,16 +3699,16 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3683,10 +3716,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3709,13 +3742,13 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3766,7 +3799,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3778,16 +3811,16 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3795,10 +3828,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3821,16 +3854,16 @@
         <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3880,7 +3913,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3892,16 +3925,16 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3909,13 +3942,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -3940,14 +3973,12 @@
         <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
         <v>211</v>
       </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>212</v>
       </c>
@@ -4007,22 +4038,22 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -4030,7 +4061,7 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4053,13 +4084,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4110,7 +4141,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4128,7 +4159,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4142,7 +4173,7 @@
         <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4168,13 +4199,13 @@
         <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4215,7 +4246,7 @@
         <v>96</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
@@ -4224,7 +4255,7 @@
         <v>97</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4242,7 +4273,7 @@
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4256,7 +4287,7 @@
         <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4282,16 +4313,16 @@
         <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4316,13 +4347,13 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>38</v>
@@ -4340,7 +4371,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4352,13 +4383,13 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4372,7 +4403,7 @@
         <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4395,19 +4426,19 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4432,13 +4463,13 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>38</v>
@@ -4456,7 +4487,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4468,13 +4499,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4488,7 +4519,7 @@
         <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4514,23 +4545,23 @@
         <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4572,7 +4603,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4584,16 +4615,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4601,10 +4632,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4627,16 +4658,16 @@
         <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4686,7 +4717,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4698,16 +4729,16 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4715,10 +4746,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4741,13 +4772,13 @@
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4798,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4810,16 +4841,16 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4827,10 +4858,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4853,16 +4884,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4912,7 +4943,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4924,16 +4955,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4941,13 +4972,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -4972,13 +5003,13 @@
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>212</v>
@@ -5039,30 +5070,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5085,13 +5116,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5142,7 +5173,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5160,7 +5191,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5171,10 +5202,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5200,13 +5231,13 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5247,7 +5278,7 @@
         <v>96</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
@@ -5256,7 +5287,7 @@
         <v>97</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5274,7 +5305,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5285,10 +5316,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5314,16 +5345,16 @@
         <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5348,13 +5379,13 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>38</v>
@@ -5372,7 +5403,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5384,13 +5415,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5401,10 +5432,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5427,19 +5458,19 @@
         <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5464,13 +5495,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5488,7 +5519,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5500,13 +5531,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5517,10 +5548,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5546,23 +5577,23 @@
         <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -5604,7 +5635,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5616,16 +5647,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5633,10 +5664,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5659,16 +5690,16 @@
         <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5718,7 +5749,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5730,16 +5761,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5747,10 +5778,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5773,13 +5804,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5830,7 +5861,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5842,16 +5873,16 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5859,10 +5890,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5885,16 +5916,16 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5944,7 +5975,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5956,16 +5987,16 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -5973,12 +6004,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C40" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>38</v>
       </c>
@@ -5987,38 +6020,36 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>241</v>
-      </c>
       <c r="O40" t="s" s="2">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q40" t="s" s="2">
-        <v>243</v>
-      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6062,39 +6093,39 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>247</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6105,7 +6136,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6114,23 +6145,19 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6154,13 +6181,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>253</v>
+        <v>38</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>254</v>
+        <v>38</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6178,50 +6205,50 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>248</v>
+        <v>144</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>256</v>
+        <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6230,23 +6257,21 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>261</v>
+        <v>148</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6282,40 +6307,40 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>145</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6323,10 +6348,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6337,31 +6362,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6386,13 +6411,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6410,25 +6435,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>267</v>
+        <v>160</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6439,10 +6464,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>272</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6453,7 +6478,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6462,22 +6487,22 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>275</v>
+        <v>166</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>276</v>
+        <v>167</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>277</v>
+        <v>168</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6502,13 +6527,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -6526,28 +6551,28 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>279</v>
+        <v>161</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6555,10 +6580,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>174</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6566,10 +6591,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6578,29 +6603,29 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
+        <v>175</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>38</v>
@@ -6642,28 +6667,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>180</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6671,10 +6696,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6697,20 +6722,18 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>295</v>
+        <v>184</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>296</v>
+        <v>185</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6758,7 +6781,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6770,16 +6793,16 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>244</v>
+        <v>188</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6787,10 +6810,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>300</v>
+        <v>191</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6801,7 +6824,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6810,23 +6833,19 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>302</v>
+        <v>193</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6874,28 +6893,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>306</v>
+        <v>197</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>38</v>
+        <v>198</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -6903,10 +6922,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>199</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6926,18 +6945,20 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>308</v>
+        <v>201</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -6986,7 +7007,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -6998,16 +7019,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>38</v>
+        <v>161</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7015,48 +7036,52 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>310</v>
+        <v>248</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>93</v>
+        <v>249</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>311</v>
+        <v>250</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="R49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7100,43 +7125,43 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>150</v>
+        <v>248</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>314</v>
+        <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7149,25 +7174,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>125</v>
+        <v>263</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7192,13 +7217,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7216,7 +7241,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>317</v>
+        <v>259</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7228,27 +7253,27 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>38</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7268,20 +7293,22 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7306,13 +7333,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>322</v>
+        <v>38</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>323</v>
+        <v>38</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7330,7 +7357,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7339,19 +7366,19 @@
         <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>38</v>
+        <v>275</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>38</v>
+        <v>277</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7359,10 +7386,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7373,7 +7400,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7385,19 +7412,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7446,28 +7473,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>331</v>
+        <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>333</v>
+        <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7475,10 +7502,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7501,17 +7528,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7560,7 +7589,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7569,19 +7598,19 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>338</v>
+        <v>291</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7589,10 +7618,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7603,7 +7632,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7615,17 +7644,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7674,28 +7705,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7703,10 +7734,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7717,7 +7748,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7726,22 +7757,22 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>306</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7790,13 +7821,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -7805,15 +7836,1047 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AM55" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AG57" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -678,49 +678,6 @@
     <t>./IdentifierIssuingAuthority</t>
   </si>
   <si>
-    <t>Organization.identifier:@default</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>「この組織を複数のシステムで識別する」</t>
-  </si>
-  <si>
-    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization.identifier:medicalInstitutionCode</t>
   </si>
   <si>
@@ -738,6 +695,9 @@
 医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。 </t>
   </si>
   <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
     <t>Organization.identifier:medicalInstitutionCode.id</t>
   </si>
   <si>
@@ -765,10 +725,20 @@
     <t>Organization.identifier:medicalInstitutionCode.assigner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization.identifier:insurerNumber</t>
   </si>
   <si>
     <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>「この組織を複数のシステムで識別する」</t>
+  </si>
+  <si>
+    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -1495,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3978,9 +3948,11 @@
       <c r="M22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4058,7 +4030,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>140</v>
@@ -4170,7 +4142,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>146</v>
@@ -4284,7 +4256,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>152</v>
@@ -4400,7 +4372,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>163</v>
@@ -4516,7 +4488,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>174</v>
@@ -4561,7 +4533,7 @@
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4632,7 +4604,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>183</v>
@@ -4746,7 +4718,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>191</v>
@@ -4858,7 +4830,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>199</v>
@@ -4884,7 +4856,7 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>201</v>
@@ -4972,13 +4944,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5003,16 +4975,16 @@
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5090,7 +5062,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>140</v>
@@ -5202,7 +5174,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>146</v>
@@ -5316,7 +5288,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>152</v>
@@ -5432,7 +5404,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>163</v>
@@ -5548,7 +5520,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>174</v>
@@ -5593,7 +5565,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -5664,7 +5636,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>183</v>
@@ -5778,7 +5750,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>191</v>
@@ -5890,7 +5862,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>199</v>
@@ -5916,7 +5888,7 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>201</v>
@@ -6004,14 +5976,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6020,112 +5990,114 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="N40" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="O40" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>139</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6136,7 +6108,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6145,19 +6117,23 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6181,13 +6157,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6205,50 +6181,50 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6257,21 +6233,23 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6307,40 +6285,40 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>265</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6348,10 +6326,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6362,31 +6340,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>156</v>
+        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6411,13 +6389,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6435,25 +6413,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>160</v>
+        <v>268</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6464,10 +6442,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6478,7 +6456,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6487,22 +6465,22 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>167</v>
+        <v>277</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>168</v>
+        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6527,13 +6505,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -6551,28 +6529,28 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>273</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>279</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>173</v>
+        <v>281</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6580,10 +6558,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>174</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6591,10 +6569,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6603,29 +6581,29 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>175</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>176</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>177</v>
+        <v>288</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>178</v>
+        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>38</v>
@@ -6667,28 +6645,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>181</v>
+        <v>293</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6696,10 +6674,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6722,18 +6700,20 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6781,7 +6761,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>295</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6793,16 +6773,16 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>189</v>
+        <v>300</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6810,10 +6790,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>191</v>
+        <v>301</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6824,7 +6804,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6833,19 +6813,23 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6893,28 +6877,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>197</v>
+        <v>307</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -6922,10 +6906,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6945,20 +6929,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>201</v>
+        <v>309</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7007,7 +6989,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7019,16 +7001,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7036,52 +7018,48 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7125,43 +7103,43 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>256</v>
+        <v>145</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7174,25 +7152,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7217,13 +7195,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7241,7 +7219,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>259</v>
+        <v>318</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7253,27 +7231,27 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7293,22 +7271,20 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7333,13 +7309,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7357,7 +7333,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7366,19 +7342,19 @@
         <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>276</v>
+        <v>325</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7386,10 +7362,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7400,7 +7376,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7412,19 +7388,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>279</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7473,28 +7449,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>334</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7502,10 +7478,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7528,19 +7504,17 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7589,7 +7563,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7598,19 +7572,19 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7618,10 +7592,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7632,7 +7606,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7644,19 +7618,17 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7705,28 +7677,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7734,10 +7706,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7748,7 +7720,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7757,22 +7729,22 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
+        <v>349</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>307</v>
+        <v>350</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7821,13 +7793,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -7836,1047 +7808,15 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN64" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -448,9 +448,6 @@
   <si>
     <t xml:space="preserve">value:system}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">org-1
@@ -1503,7 +1500,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -2966,7 +2963,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>127</v>
@@ -2978,30 +2975,30 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3024,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3081,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3099,7 +3096,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3110,10 +3107,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3139,13 +3136,13 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3186,7 +3183,7 @@
         <v>96</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
@@ -3195,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3213,7 +3210,7 @@
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3224,10 +3221,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3253,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3287,31 +3284,31 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3323,13 +3320,13 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3340,10 +3337,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3366,19 +3363,19 @@
         <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3403,31 +3400,31 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3439,13 +3436,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3456,10 +3453,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3485,16 +3482,16 @@
         <v>62</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3543,7 +3540,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3555,16 +3552,16 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3572,10 +3569,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3598,16 +3595,16 @@
         <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3657,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3669,16 +3666,16 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3686,10 +3683,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3712,13 +3709,13 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3769,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3781,16 +3778,16 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3798,10 +3795,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3824,16 +3821,16 @@
         <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3883,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3895,16 +3892,16 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3912,13 +3909,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -3943,16 +3940,16 @@
         <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>38</v>
@@ -4010,30 +4007,30 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4056,13 +4053,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4113,7 +4110,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4131,7 +4128,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4142,10 +4139,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4171,13 +4168,13 @@
         <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4218,7 +4215,7 @@
         <v>96</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
@@ -4227,7 +4224,7 @@
         <v>97</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4245,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4256,10 +4253,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4285,16 +4282,16 @@
         <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4319,31 +4316,31 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4355,13 +4352,13 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4372,10 +4369,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4398,19 +4395,19 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4435,31 +4432,31 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4471,13 +4468,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4488,10 +4485,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4517,23 +4514,23 @@
         <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4575,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4587,16 +4584,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4604,10 +4601,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4630,16 +4627,16 @@
         <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4689,7 +4686,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4701,16 +4698,16 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4718,10 +4715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4744,13 +4741,13 @@
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4801,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4813,16 +4810,16 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4830,10 +4827,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4856,16 +4853,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4915,7 +4912,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4927,16 +4924,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4944,13 +4941,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -4975,16 +4972,16 @@
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>38</v>
@@ -5042,30 +5039,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5088,13 +5085,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5145,7 +5142,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5163,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5174,10 +5171,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5203,13 +5200,13 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5250,7 +5247,7 @@
         <v>96</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
@@ -5259,7 +5256,7 @@
         <v>97</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5277,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5288,10 +5285,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5317,16 +5314,16 @@
         <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5351,31 +5348,31 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5387,13 +5384,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5404,10 +5401,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5430,19 +5427,19 @@
         <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5467,31 +5464,31 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5503,13 +5500,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5520,10 +5517,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5549,23 +5546,23 @@
         <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -5607,7 +5604,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5619,16 +5616,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5636,10 +5633,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5662,16 +5659,16 @@
         <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5721,7 +5718,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5733,16 +5730,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5750,10 +5747,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5776,13 +5773,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5833,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5845,16 +5842,16 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5862,10 +5859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5888,16 +5885,16 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5947,7 +5944,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5959,16 +5956,16 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -5976,10 +5973,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6002,26 +5999,26 @@
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="O40" t="s" s="2">
+      <c r="P40" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q40" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="P40" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q40" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="R40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6065,7 +6062,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6080,24 +6077,24 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6120,19 +6117,19 @@
         <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6157,14 +6154,14 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6181,7 +6178,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6196,24 +6193,24 @@
         <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6236,19 +6233,19 @@
         <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6297,7 +6294,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6306,19 +6303,19 @@
         <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6326,10 +6323,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6352,19 +6349,19 @@
         <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6413,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6431,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6442,10 +6439,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6468,19 +6465,19 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6529,7 +6526,7 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -6538,19 +6535,19 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6558,10 +6555,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6584,19 +6581,19 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -6645,7 +6642,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6654,19 +6651,19 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AJ45" t="s" s="2">
+      <c r="AK45" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6674,10 +6671,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6700,19 +6697,19 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -6761,7 +6758,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6776,13 +6773,13 @@
         <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6790,10 +6787,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6816,19 +6813,19 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -6877,7 +6874,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -6895,7 +6892,7 @@
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -6906,10 +6903,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6932,13 +6929,13 @@
         <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6989,7 +6986,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7007,7 +7004,7 @@
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7018,10 +7015,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7047,10 +7044,10 @@
         <v>93</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>124</v>
@@ -7103,7 +7100,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7121,7 +7118,7 @@
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
@@ -7132,14 +7129,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7161,10 +7158,10 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>124</v>
@@ -7219,7 +7216,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7248,10 +7245,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7274,17 +7271,17 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7309,14 +7306,14 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7333,7 +7330,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7351,7 +7348,7 @@
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
@@ -7362,10 +7359,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7388,19 +7385,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7449,7 +7446,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7461,16 +7458,16 @@
         <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7478,10 +7475,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7504,17 +7501,17 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7563,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7578,10 +7575,10 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7592,10 +7589,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7618,17 +7615,17 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7677,7 +7674,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -7692,10 +7689,10 @@
         <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -7706,10 +7703,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7732,19 +7729,19 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7793,7 +7790,7 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -7811,7 +7808,7 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="351">
   <si>
     <t>Property</t>
   </si>
@@ -450,9 +450,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -676,49 +673,6 @@
   </si>
   <si>
     <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>「この組織を複数のシステムで識別する」</t>
-  </si>
-  <si>
-    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
-  </si>
-  <si>
-    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.use</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.type</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.system</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.value</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.period</t>
-  </si>
-  <si>
-    <t>Organization.identifier:@default.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Organization.identifier:medicalInstitutionCode</t>
@@ -738,6 +692,9 @@
 医療機関コード（１０桁）の詳細はOrganizationプロファイルの医療機関コード１０桁の説明を参照すること。 </t>
   </si>
   <si>
+    <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
+  </si>
+  <si>
     <t>Organization.identifier:medicalInstitutionCode.id</t>
   </si>
   <si>
@@ -765,10 +722,20 @@
     <t>Organization.identifier:medicalInstitutionCode.assigner</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
     <t>Organization.identifier:insurerNumber</t>
   </si>
   <si>
     <t>insurerNumber</t>
+  </si>
+  <si>
+    <t>「この組織を複数のシステムで識別する」</t>
+  </si>
+  <si>
+    <t>「異なる複数のシステム上で組織を識別するために使用される組織の識別子」</t>
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する
@@ -1495,7 +1462,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN64"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1533,7 +1500,7 @@
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -2996,7 +2963,7 @@
         <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>127</v>
@@ -3008,30 +2975,30 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3054,13 +3021,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3111,7 +3078,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3129,7 +3096,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>38</v>
@@ -3140,10 +3107,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3169,13 +3136,13 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3216,7 +3183,7 @@
         <v>96</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>38</v>
@@ -3225,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3243,7 +3210,7 @@
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3254,10 +3221,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3283,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3317,31 +3284,31 @@
         <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3353,13 +3320,13 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3370,10 +3337,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3396,19 +3363,19 @@
         <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>38</v>
@@ -3433,31 +3400,31 @@
         <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3469,13 +3436,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3486,10 +3453,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3515,16 +3482,16 @@
         <v>62</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3573,7 +3540,7 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -3585,16 +3552,16 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>38</v>
@@ -3602,10 +3569,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3628,16 +3595,16 @@
         <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3687,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -3699,16 +3666,16 @@
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>38</v>
@@ -3716,10 +3683,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3742,13 +3709,13 @@
         <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3799,7 +3766,7 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -3811,16 +3778,16 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>38</v>
@@ -3828,10 +3795,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3854,16 +3821,16 @@
         <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3913,7 +3880,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -3925,16 +3892,16 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>38</v>
@@ -3942,13 +3909,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>38</v>
@@ -3973,12 +3940,14 @@
         <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>212</v>
       </c>
@@ -4038,22 +4007,22 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="23">
@@ -4061,7 +4030,7 @@
         <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4084,13 +4053,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4141,7 +4110,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4159,7 +4128,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4173,7 +4142,7 @@
         <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4199,13 +4168,13 @@
         <v>93</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4246,7 +4215,7 @@
         <v>96</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>38</v>
@@ -4255,7 +4224,7 @@
         <v>97</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4273,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4287,7 +4256,7 @@
         <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4313,16 +4282,16 @@
         <v>68</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4347,31 +4316,31 @@
         <v>38</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4383,13 +4352,13 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4403,7 +4372,7 @@
         <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4426,19 +4395,19 @@
         <v>49</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>38</v>
@@ -4463,31 +4432,31 @@
         <v>38</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4499,13 +4468,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4519,7 +4488,7 @@
         <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4545,23 +4514,23 @@
         <v>62</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>38</v>
@@ -4603,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -4615,16 +4584,16 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>38</v>
@@ -4632,10 +4601,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4658,16 +4627,16 @@
         <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4717,7 +4686,7 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -4729,16 +4698,16 @@
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>38</v>
@@ -4746,10 +4715,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4772,13 +4741,13 @@
         <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4829,7 +4798,7 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -4841,16 +4810,16 @@
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>38</v>
@@ -4858,10 +4827,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4884,16 +4853,16 @@
         <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4943,7 +4912,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -4955,16 +4924,16 @@
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>38</v>
@@ -4972,13 +4941,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>127</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>38</v>
@@ -5003,13 +4972,13 @@
         <v>128</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>212</v>
@@ -5070,30 +5039,30 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>139</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5116,13 +5085,13 @@
         <v>38</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5173,7 +5142,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5191,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5202,10 +5171,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5231,13 +5200,13 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5278,7 +5247,7 @@
         <v>96</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>38</v>
@@ -5287,7 +5256,7 @@
         <v>97</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5305,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5316,10 +5285,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5345,16 +5314,16 @@
         <v>68</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>38</v>
@@ -5379,31 +5348,31 @@
         <v>38</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5415,13 +5384,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5432,10 +5401,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5458,19 +5427,19 @@
         <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -5495,31 +5464,31 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -5531,13 +5500,13 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>38</v>
@@ -5548,10 +5517,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5577,23 +5546,23 @@
         <v>62</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>38</v>
@@ -5635,7 +5604,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5647,16 +5616,16 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>38</v>
@@ -5664,10 +5633,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5690,16 +5659,16 @@
         <v>49</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5749,7 +5718,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -5761,16 +5730,16 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>38</v>
@@ -5778,10 +5747,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5804,13 +5773,13 @@
         <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5861,7 +5830,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -5873,16 +5842,16 @@
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>38</v>
@@ -5890,10 +5859,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5916,16 +5885,16 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5975,7 +5944,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>39</v>
@@ -5987,16 +5956,16 @@
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>38</v>
@@ -6004,14 +5973,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="C40" t="s" s="2">
         <v>237</v>
       </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6020,36 +5987,38 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="R40" t="s" s="2">
         <v>38</v>
       </c>
@@ -6093,39 +6062,39 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>136</v>
+        <v>244</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>139</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6136,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>38</v>
@@ -6145,19 +6114,23 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>38</v>
       </c>
@@ -6181,13 +6154,13 @@
         <v>38</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>38</v>
+        <v>255</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>38</v>
@@ -6205,50 +6178,50 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>38</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6257,21 +6230,23 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>261</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>38</v>
       </c>
@@ -6307,40 +6282,40 @@
         <v>38</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>145</v>
+        <v>265</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>38</v>
@@ -6348,10 +6323,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6362,31 +6337,31 @@
         <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>153</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>156</v>
+        <v>271</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>38</v>
@@ -6411,13 +6386,13 @@
         <v>38</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>38</v>
@@ -6435,25 +6410,25 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>160</v>
+        <v>267</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -6464,10 +6439,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6478,7 +6453,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6487,22 +6462,22 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -6527,13 +6502,13 @@
         <v>38</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>169</v>
+        <v>38</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>38</v>
@@ -6551,28 +6526,28 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>38</v>
+        <v>278</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>162</v>
+        <v>281</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>38</v>
+        <v>282</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>38</v>
@@ -6580,10 +6555,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6591,10 +6566,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>38</v>
@@ -6603,29 +6578,29 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>175</v>
+        <v>285</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>176</v>
+        <v>286</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>244</v>
+        <v>38</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>38</v>
@@ -6667,28 +6642,28 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>181</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>38</v>
@@ -6696,10 +6671,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6722,18 +6697,20 @@
         <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>184</v>
+        <v>295</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
       </c>
@@ -6781,7 +6758,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>294</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -6793,16 +6770,16 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>188</v>
+        <v>244</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>38</v>
@@ -6810,10 +6787,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6824,7 +6801,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -6833,19 +6810,23 @@
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6893,28 +6874,28 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>195</v>
+        <v>300</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>38</v>
@@ -6922,10 +6903,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>199</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6945,20 +6926,18 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7007,7 +6986,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7019,16 +6998,16 @@
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>205</v>
+        <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>206</v>
+        <v>144</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>38</v>
@@ -7036,52 +7015,48 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>249</v>
+        <v>93</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7125,43 +7100,43 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>38</v>
+        <v>314</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7174,25 +7149,25 @@
         <v>38</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>262</v>
+        <v>124</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>263</v>
+        <v>125</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7217,13 +7192,13 @@
         <v>38</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>266</v>
+        <v>38</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>38</v>
@@ -7241,7 +7216,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7253,27 +7228,27 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>268</v>
+        <v>91</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>269</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7293,22 +7268,20 @@
         <v>38</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>274</v>
+        <v>321</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -7333,13 +7306,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>38</v>
+        <v>168</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>38</v>
+        <v>322</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -7357,7 +7330,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7366,19 +7339,19 @@
         <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>275</v>
+        <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>277</v>
+        <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>38</v>
@@ -7386,10 +7359,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7400,7 +7373,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>38</v>
@@ -7412,19 +7385,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -7473,28 +7446,28 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>38</v>
+        <v>333</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>38</v>
@@ -7502,10 +7475,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7528,19 +7501,17 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -7589,7 +7560,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7598,19 +7569,19 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>289</v>
+        <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>293</v>
+        <v>38</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>38</v>
@@ -7618,10 +7589,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7632,7 +7603,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7644,19 +7615,17 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -7705,28 +7674,28 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>300</v>
+        <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>301</v>
+        <v>60</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>304</v>
+        <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>38</v>
@@ -7734,10 +7703,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7748,7 +7717,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -7757,22 +7726,22 @@
         <v>38</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>38</v>
@@ -7821,13 +7790,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -7836,1047 +7805,15 @@
         <v>60</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>255</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN64" t="s" s="2">
         <v>38</v>
       </c>
     </row>
